--- a/biology/Botanique/Pyrus_tenuinervis/Pyrus_tenuinervis.xlsx
+++ b/biology/Botanique/Pyrus_tenuinervis/Pyrus_tenuinervis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pirus tenuinervis
 Pyrus tenuinervis est une espèce fossile de plantes à fleurs du genre Pyrus, de la famille Rosaceae et l'ordre Rosales.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pyrus tenuinervis est décrite en 1934 par Nicolas Théobald (1903-1981) sous le protonyme Pirus tenuinervis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pyrus tenuinervis est décrite en 1934 par Nicolas Théobald (1903-1981) sous le protonyme Pirus tenuinervis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une feuille membraneuse à bord finement denté, de forme ovale, pointue au sommet, arrondie en cœur à la base. Le pétiole manque. La nervure principale est très apparente. Les nervures secondaires (5-6) se détachent sous un angle de 70° environ et se dirigent vers les bords du limbe, où elles se réunissent en boucles : la nervure est camptodrome. Seules les nervures marginales pénètrent dans les dents du bord du limbe. Les nervures anastomotiques sont perpendiculaires ou obliques et délimitent des mailles polygonales occupées par des ramifications plus fines[2]..
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une feuille membraneuse à bord finement denté, de forme ovale, pointue au sommet, arrondie en cœur à la base. Le pétiole manque. La nervure principale est très apparente. Les nervures secondaires (5-6) se détachent sous un angle de 70° environ et se dirigent vers les bords du limbe, où elles se réunissent en boucles : la nervure est camptodrome. Seules les nervures marginales pénètrent dans les dents du bord du limbe. Les nervures anastomotiques sont perpendiculaires ou obliques et délimitent des mailles polygonales occupées par des ramifications plus fines..
 </t>
         </is>
       </c>
